--- a/classeurs/fonction_si.xlsx
+++ b/classeurs/fonction_si.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t xml:space="preserve">Moyenne</t>
   </si>
@@ -30,6 +30,9 @@
     <t xml:space="preserve">Appréciation</t>
   </si>
   <si>
+    <t xml:space="preserve">Moyenne &gt; = 10</t>
+  </si>
+  <si>
     <t xml:space="preserve">Oumaima</t>
   </si>
   <si>
@@ -43,6 +46,24 @@
   </si>
   <si>
     <t xml:space="preserve">Farida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moy &gt; 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 &lt; = Moy &lt; 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moy &lt; 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mariem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mouna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayssa</t>
   </si>
   <si>
     <t xml:space="preserve">Nombre d’étoiles</t>
@@ -67,6 +88,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -87,12 +109,14 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -100,6 +124,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -107,6 +132,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -197,7 +223,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -216,6 +242,26 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -311,18 +357,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.96"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -330,56 +377,64 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>10.72</v>
       </c>
       <c r="C2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>12.17</v>
       </c>
       <c r="C3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>13.08</v>
       </c>
       <c r="C4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>9.03</v>
       </c>
       <c r="C5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>5.5</v>
       </c>
       <c r="C6" s="1"/>
+      <c r="D6" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -392,75 +447,137 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.3"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" s="7" customFormat="true" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="n">
+      <c r="D1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" s="7" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="9" t="n">
         <v>10.72</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="n">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" s="7" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9" t="n">
         <v>12.17</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="n">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" s="7" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9" t="n">
         <v>13.08</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4" t="n">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" s="7" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="9" t="n">
         <v>9.03</v>
       </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4" t="n">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" s="7" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="9" t="n">
         <v>5.5</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="9" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="9" t="n">
+        <v>8.95</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -479,62 +596,62 @@
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>9</v>
+      <c r="A1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
+      <c r="A2" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="n">
+      <c r="A3" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="n">
+      <c r="A4" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="n">
+      <c r="A5" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+      <c r="A6" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/classeurs/fonction_si.xlsx
+++ b/classeurs/fonction_si.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Activité 3" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Activité 4" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Activité 5" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Activité 6" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Activité 7" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Activité 8" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -359,11 +359,11 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.96"/>
@@ -436,8 +436,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -453,7 +453,7 @@
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.61"/>
@@ -579,8 +579,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -592,13 +592,13 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.2"/>
   </cols>
   <sheetData>
@@ -653,8 +653,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>